--- a/doc/Stream BenchMark Results.xlsx
+++ b/doc/Stream BenchMark Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Collection</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Stream max with parallel</t>
+  </si>
+  <si>
+    <t>Stream reduce1 with parallel</t>
+  </si>
+  <si>
+    <t>Stream reduce2 with parallel</t>
+  </si>
+  <si>
+    <t>Stream max parallel</t>
   </si>
 </sst>
 </file>
@@ -423,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -463,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -491,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2147430862</v>
+      </c>
+      <c r="D5">
         <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2147441390</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,52 +528,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D7">
-        <v>2896</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -572,13 +584,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2147441390</v>
+        <v>2147430862</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,13 +598,97 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2147430862</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>2147441390</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2147430862</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2147430862</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2147430862</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2147430862</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2147430862</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2147430862</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
